--- a/static/需求/字段(11.3).xlsx
+++ b/static/需求/字段(11.3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="待办" sheetId="9" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="质量看板页" sheetId="4" r:id="rId4"/>
     <sheet name="版本录入页" sheetId="1" r:id="rId5"/>
     <sheet name="账号列表" sheetId="8" r:id="rId6"/>
-    <sheet name="（样例）版本得分表" sheetId="2" r:id="rId7"/>
+    <sheet name="质量报告页" sheetId="10" r:id="rId7"/>
+    <sheet name="（样例）版本得分表" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">版本录入页!$F$1:$F$87</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="761">
   <si>
     <t>模块</t>
   </si>
@@ -2110,6 +2111,39 @@
     <t>崔雪梅</t>
   </si>
   <si>
+    <t>月报</t>
+  </si>
+  <si>
+    <t>月报标题</t>
+  </si>
+  <si>
+    <t>monthTitle</t>
+  </si>
+  <si>
+    <t>发布时间</t>
+  </si>
+  <si>
+    <t>monthTime</t>
+  </si>
+  <si>
+    <t>专项报告</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>报告标题</t>
+  </si>
+  <si>
+    <t>reportTitle</t>
+  </si>
+  <si>
+    <t>reportTime</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -2386,13 +2420,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="#\ ?/?"/>
   </numFmts>
@@ -2471,14 +2505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2493,7 +2520,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,16 +2609,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2546,53 +2633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2603,14 +2645,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2647,7 +2681,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,13 +2783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2677,25 +2813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,121 +2849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3224,30 +3258,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3287,15 +3297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3307,6 +3308,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3329,10 +3363,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3341,133 +3375,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3499,13 +3533,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
@@ -3514,13 +3548,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3532,13 +3566,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3550,7 +3584,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3580,7 +3614,7 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3607,13 +3641,13 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -3622,7 +3656,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3640,24 +3674,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3694,15 +3740,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3720,9 +3757,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4197,7 +4231,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4263,8 +4297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
@@ -5690,7 +5724,7 @@
       <c r="H70" s="114"/>
       <c r="I70" s="109"/>
     </row>
-    <row r="71" hidden="1" spans="1:9">
+    <row r="71" ht="14.25" hidden="1" spans="1:9">
       <c r="A71" s="126"/>
       <c r="B71" s="115"/>
       <c r="C71" s="130" t="s">
@@ -6680,7 +6714,7 @@
       <c r="I120" s="128"/>
     </row>
     <row r="121" hidden="1" spans="1:9">
-      <c r="A121" s="66" t="s">
+      <c r="A121" s="70" t="s">
         <v>250</v>
       </c>
       <c r="B121" s="110" t="s">
@@ -6697,7 +6731,7 @@
       <c r="I121" s="97"/>
     </row>
     <row r="122" hidden="1" spans="1:9">
-      <c r="A122" s="66"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="110"/>
       <c r="C122" s="109" t="s">
         <v>253</v>
@@ -6710,7 +6744,7 @@
       <c r="I122" s="97"/>
     </row>
     <row r="123" hidden="1" spans="1:9">
-      <c r="A123" s="66"/>
+      <c r="A123" s="70"/>
       <c r="B123" s="110"/>
       <c r="C123" s="109" t="s">
         <v>254</v>
@@ -6723,7 +6757,7 @@
       <c r="I123" s="97"/>
     </row>
     <row r="124" hidden="1" spans="1:9">
-      <c r="A124" s="66"/>
+      <c r="A124" s="70"/>
       <c r="B124" s="110"/>
       <c r="C124" s="109" t="s">
         <v>255</v>
@@ -6736,7 +6770,7 @@
       <c r="I124" s="97"/>
     </row>
     <row r="125" hidden="1" spans="1:9">
-      <c r="A125" s="66"/>
+      <c r="A125" s="70"/>
       <c r="B125" s="110"/>
       <c r="C125" s="109" t="s">
         <v>256</v>
@@ -6749,7 +6783,7 @@
       <c r="I125" s="97"/>
     </row>
     <row r="126" hidden="1" spans="1:9">
-      <c r="A126" s="66"/>
+      <c r="A126" s="70"/>
       <c r="B126" s="110"/>
       <c r="C126" s="109" t="s">
         <v>257</v>
@@ -6762,7 +6796,7 @@
       <c r="I126" s="97"/>
     </row>
     <row r="127" hidden="1" spans="1:9">
-      <c r="A127" s="66"/>
+      <c r="A127" s="70"/>
       <c r="B127" s="110"/>
       <c r="C127" s="109" t="s">
         <v>258</v>
@@ -6775,7 +6809,7 @@
       <c r="I127" s="97"/>
     </row>
     <row r="128" hidden="1" spans="1:9">
-      <c r="A128" s="66"/>
+      <c r="A128" s="70"/>
       <c r="B128" s="143" t="s">
         <v>259</v>
       </c>
@@ -6790,7 +6824,7 @@
       <c r="I128" s="97"/>
     </row>
     <row r="129" hidden="1" spans="1:9">
-      <c r="A129" s="66"/>
+      <c r="A129" s="70"/>
       <c r="B129" s="110"/>
       <c r="C129" s="109" t="s">
         <v>253</v>
@@ -6803,7 +6837,7 @@
       <c r="I129" s="97"/>
     </row>
     <row r="130" hidden="1" spans="1:9">
-      <c r="A130" s="66"/>
+      <c r="A130" s="70"/>
       <c r="B130" s="110"/>
       <c r="C130" s="109" t="s">
         <v>254</v>
@@ -6816,7 +6850,7 @@
       <c r="I130" s="97"/>
     </row>
     <row r="131" hidden="1" spans="1:9">
-      <c r="A131" s="66"/>
+      <c r="A131" s="70"/>
       <c r="B131" s="110"/>
       <c r="C131" s="109" t="s">
         <v>255</v>
@@ -6829,7 +6863,7 @@
       <c r="I131" s="97"/>
     </row>
     <row r="132" hidden="1" spans="1:9">
-      <c r="A132" s="66"/>
+      <c r="A132" s="70"/>
       <c r="B132" s="110"/>
       <c r="C132" s="109" t="s">
         <v>256</v>
@@ -6842,7 +6876,7 @@
       <c r="I132" s="97"/>
     </row>
     <row r="133" hidden="1" spans="1:9">
-      <c r="A133" s="66"/>
+      <c r="A133" s="70"/>
       <c r="B133" s="110"/>
       <c r="C133" s="109" t="s">
         <v>257</v>
@@ -6855,7 +6889,7 @@
       <c r="I133" s="97"/>
     </row>
     <row r="134" hidden="1" spans="1:9">
-      <c r="A134" s="66"/>
+      <c r="A134" s="70"/>
       <c r="B134" s="110"/>
       <c r="C134" s="109" t="s">
         <v>258</v>
@@ -6868,7 +6902,7 @@
       <c r="I134" s="97"/>
     </row>
     <row r="135" ht="28.5" hidden="1" customHeight="1" spans="1:3">
-      <c r="A135" s="66" t="s">
+      <c r="A135" s="70" t="s">
         <v>260</v>
       </c>
       <c r="B135" s="110" t="s">
@@ -6879,42 +6913,42 @@
       </c>
     </row>
     <row r="136" hidden="1" spans="1:3">
-      <c r="A136" s="66"/>
+      <c r="A136" s="70"/>
       <c r="B136" s="110"/>
       <c r="C136" s="99" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="137" hidden="1" spans="1:3">
-      <c r="A137" s="66"/>
+      <c r="A137" s="70"/>
       <c r="B137" s="110"/>
       <c r="C137" s="99" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="138" hidden="1" spans="1:3">
-      <c r="A138" s="66"/>
+      <c r="A138" s="70"/>
       <c r="B138" s="110"/>
       <c r="C138" s="99" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="139" hidden="1" spans="1:3">
-      <c r="A139" s="66"/>
+      <c r="A139" s="70"/>
       <c r="B139" s="110"/>
       <c r="C139" s="99" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="140" hidden="1" spans="1:3">
-      <c r="A140" s="66"/>
+      <c r="A140" s="70"/>
       <c r="B140" s="110"/>
       <c r="C140" s="99" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="141" hidden="1" spans="1:5">
-      <c r="A141" s="66"/>
+      <c r="A141" s="70"/>
       <c r="B141" s="110"/>
       <c r="C141" s="99" t="s">
         <v>267</v>
@@ -6924,14 +6958,14 @@
       </c>
     </row>
     <row r="142" hidden="1" spans="1:3">
-      <c r="A142" s="66"/>
+      <c r="A142" s="70"/>
       <c r="B142" s="110"/>
       <c r="C142" s="99" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="143" hidden="1" spans="1:3">
-      <c r="A143" s="66"/>
+      <c r="A143" s="70"/>
       <c r="B143" s="110" t="s">
         <v>270</v>
       </c>
@@ -6940,14 +6974,14 @@
       </c>
     </row>
     <row r="144" hidden="1" spans="1:3">
-      <c r="A144" s="66"/>
+      <c r="A144" s="70"/>
       <c r="B144" s="110"/>
       <c r="C144" s="99" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:5">
-      <c r="A145" s="66"/>
+      <c r="A145" s="70"/>
       <c r="B145" s="110"/>
       <c r="C145" s="99" t="s">
         <v>273</v>
@@ -6957,35 +6991,35 @@
       </c>
     </row>
     <row r="146" hidden="1" spans="1:3">
-      <c r="A146" s="66"/>
+      <c r="A146" s="70"/>
       <c r="B146" s="110"/>
       <c r="C146" s="99" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="147" hidden="1" spans="1:3">
-      <c r="A147" s="66"/>
+      <c r="A147" s="70"/>
       <c r="B147" s="110"/>
       <c r="C147" s="99" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="148" hidden="1" spans="1:3">
-      <c r="A148" s="66"/>
+      <c r="A148" s="70"/>
       <c r="B148" s="110"/>
       <c r="C148" s="99" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="149" hidden="1" spans="1:3">
-      <c r="A149" s="66"/>
+      <c r="A149" s="70"/>
       <c r="B149" s="110"/>
       <c r="C149" s="99" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="150" hidden="1" spans="1:5">
-      <c r="A150" s="66" t="s">
+      <c r="A150" s="70" t="s">
         <v>279</v>
       </c>
       <c r="B150" s="110" t="s">
@@ -6999,7 +7033,7 @@
       </c>
     </row>
     <row r="151" hidden="1" spans="1:5">
-      <c r="A151" s="66"/>
+      <c r="A151" s="70"/>
       <c r="B151" s="110"/>
       <c r="C151" s="99" t="s">
         <v>283</v>
@@ -7009,7 +7043,7 @@
       </c>
     </row>
     <row r="152" hidden="1" spans="1:5">
-      <c r="A152" s="66"/>
+      <c r="A152" s="70"/>
       <c r="B152" s="110"/>
       <c r="C152" s="99" t="s">
         <v>284</v>
@@ -7019,7 +7053,7 @@
       </c>
     </row>
     <row r="153" hidden="1" spans="1:5">
-      <c r="A153" s="66"/>
+      <c r="A153" s="70"/>
       <c r="B153" s="110"/>
       <c r="C153" s="99" t="s">
         <v>285</v>
@@ -7029,7 +7063,7 @@
       </c>
     </row>
     <row r="154" hidden="1" spans="1:5">
-      <c r="A154" s="66"/>
+      <c r="A154" s="70"/>
       <c r="B154" s="110"/>
       <c r="C154" s="99" t="s">
         <v>257</v>
@@ -7039,7 +7073,7 @@
       </c>
     </row>
     <row r="155" hidden="1" spans="1:5">
-      <c r="A155" s="66"/>
+      <c r="A155" s="70"/>
       <c r="B155" s="110" t="s">
         <v>286</v>
       </c>
@@ -7051,7 +7085,7 @@
       </c>
     </row>
     <row r="156" hidden="1" spans="1:5">
-      <c r="A156" s="66"/>
+      <c r="A156" s="70"/>
       <c r="B156" s="110"/>
       <c r="C156" s="99" t="s">
         <v>288</v>
@@ -7061,7 +7095,7 @@
       </c>
     </row>
     <row r="157" hidden="1" spans="1:5">
-      <c r="A157" s="66"/>
+      <c r="A157" s="70"/>
       <c r="B157" s="110"/>
       <c r="C157" s="99" t="s">
         <v>289</v>
@@ -7071,7 +7105,7 @@
       </c>
     </row>
     <row r="158" hidden="1" spans="1:5">
-      <c r="A158" s="66"/>
+      <c r="A158" s="70"/>
       <c r="B158" s="110"/>
       <c r="C158" s="99" t="s">
         <v>290</v>
@@ -7081,7 +7115,7 @@
       </c>
     </row>
     <row r="159" hidden="1" spans="1:5">
-      <c r="A159" s="66"/>
+      <c r="A159" s="70"/>
       <c r="B159" s="110"/>
       <c r="C159" s="99" t="s">
         <v>291</v>
@@ -7091,7 +7125,7 @@
       </c>
     </row>
     <row r="160" hidden="1" spans="1:5">
-      <c r="A160" s="66"/>
+      <c r="A160" s="70"/>
       <c r="B160" s="110"/>
       <c r="C160" s="99" t="s">
         <v>292</v>
@@ -7101,7 +7135,7 @@
       </c>
     </row>
     <row r="161" hidden="1" spans="1:3">
-      <c r="A161" s="66"/>
+      <c r="A161" s="70"/>
       <c r="B161" s="110" t="s">
         <v>293</v>
       </c>
@@ -7110,14 +7144,14 @@
       </c>
     </row>
     <row r="162" hidden="1" spans="1:3">
-      <c r="A162" s="66"/>
+      <c r="A162" s="70"/>
       <c r="B162" s="110"/>
       <c r="C162" s="99" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="163" hidden="1" spans="1:4">
-      <c r="A163" s="66" t="s">
+      <c r="A163" s="70" t="s">
         <v>296</v>
       </c>
       <c r="B163" s="110" t="s">
@@ -7129,28 +7163,28 @@
       <c r="D163" s="144"/>
     </row>
     <row r="164" hidden="1" spans="1:3">
-      <c r="A164" s="66"/>
+      <c r="A164" s="70"/>
       <c r="B164" s="110"/>
       <c r="C164" s="99" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="165" hidden="1" spans="1:3">
-      <c r="A165" s="66"/>
+      <c r="A165" s="70"/>
       <c r="B165" s="110"/>
       <c r="C165" s="99" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="166" hidden="1" spans="1:3">
-      <c r="A166" s="66"/>
+      <c r="A166" s="70"/>
       <c r="B166" s="110"/>
       <c r="C166" s="99" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="167" hidden="1" spans="1:3">
-      <c r="A167" s="66"/>
+      <c r="A167" s="70"/>
       <c r="B167" s="108" t="s">
         <v>301</v>
       </c>
@@ -7355,306 +7389,306 @@
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="89"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="63" t="s">
         <v>335</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="69" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="89"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="63" t="s">
         <v>339</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="69" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:6">
       <c r="A10" s="89"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-    </row>
-    <row r="11" s="57" customFormat="1" spans="1:6">
-      <c r="A11" s="67"/>
-      <c r="B11" s="58" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+    </row>
+    <row r="11" s="58" customFormat="1" spans="1:6">
+      <c r="A11" s="71"/>
+      <c r="B11" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="63" t="s">
         <v>343</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="69" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="12" s="57" customFormat="1" spans="1:6">
-      <c r="A12" s="67"/>
+    <row r="12" s="58" customFormat="1" spans="1:6">
+      <c r="A12" s="71"/>
       <c r="B12" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="63" t="s">
         <v>347</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="69" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" customFormat="1" spans="1:6">
       <c r="A14" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="69" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15" s="89"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="63" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="69" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
       <c r="A16" s="89"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="69" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
       <c r="A17" s="89"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="69" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
       <c r="A18" s="89"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="69" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
       <c r="A19" s="89"/>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="69" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
       <c r="A20" s="89"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="69" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="89"/>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="69" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:6">
       <c r="A22" s="89"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="63" t="s">
         <v>383</v>
       </c>
       <c r="D22" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="69" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="89"/>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="63" t="s">
         <v>387</v>
       </c>
       <c r="D23" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="69" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="89"/>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="63" t="s">
         <v>391</v>
       </c>
       <c r="D24" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="69" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:6">
       <c r="A25" s="89"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="63" t="s">
         <v>395</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>396</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="69" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7738,82 +7772,82 @@
       <c r="E30" s="94"/>
       <c r="F30" s="94"/>
     </row>
-    <row r="31" s="57" customFormat="1" spans="1:6">
-      <c r="A31" s="67"/>
-      <c r="B31" s="58" t="s">
+    <row r="31" s="58" customFormat="1" spans="1:6">
+      <c r="A31" s="71"/>
+      <c r="B31" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="63" t="s">
         <v>415</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="63" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="32" s="57" customFormat="1" spans="1:6">
-      <c r="A32" s="67"/>
-      <c r="B32" s="58" t="s">
+    <row r="32" s="58" customFormat="1" spans="1:6">
+      <c r="A32" s="71"/>
+      <c r="B32" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="63" t="s">
         <v>420</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58" t="s">
+      <c r="E32" s="63"/>
+      <c r="F32" s="63" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="34" s="57" customFormat="1" spans="1:8">
-      <c r="A34" s="67" t="s">
+    <row r="34" s="58" customFormat="1" spans="1:8">
+      <c r="A34" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>423</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="58" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="35" s="57" customFormat="1" spans="1:8">
-      <c r="A35" s="67"/>
-      <c r="B35" s="57" t="s">
+    <row r="35" s="58" customFormat="1" spans="1:8">
+      <c r="A35" s="71"/>
+      <c r="B35" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H35" s="58" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="36" s="57" customFormat="1" spans="1:8">
-      <c r="A36" s="67"/>
-      <c r="B36" s="57" t="s">
+    <row r="36" s="58" customFormat="1" spans="1:8">
+      <c r="A36" s="71"/>
+      <c r="B36" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="58" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7840,25 +7874,25 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="73" customWidth="1"/>
-    <col min="2" max="2" width="15.5416666666667" style="74" customWidth="1"/>
-    <col min="3" max="3" width="23.4583333333333" style="57" customWidth="1"/>
-    <col min="4" max="4" width="22.4583333333333" style="57" customWidth="1"/>
-    <col min="5" max="5" width="8.81666666666667" style="57"/>
-    <col min="6" max="6" width="58.75" style="57" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="57" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="57" customWidth="1"/>
-    <col min="9" max="16384" width="8.81666666666667" style="57"/>
+    <col min="1" max="1" width="52.5" style="56" customWidth="1"/>
+    <col min="2" max="2" width="15.5416666666667" style="57" customWidth="1"/>
+    <col min="3" max="3" width="23.4583333333333" style="58" customWidth="1"/>
+    <col min="4" max="4" width="22.4583333333333" style="58" customWidth="1"/>
+    <col min="5" max="5" width="8.81666666666667" style="58"/>
+    <col min="6" max="6" width="58.75" style="58" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="58" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="58" customWidth="1"/>
+    <col min="9" max="16384" width="8.81666666666667" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" s="56" customFormat="1" spans="1:6">
-      <c r="A1" s="75" t="s">
+    <row r="1" s="55" customFormat="1" spans="1:6">
+      <c r="A1" s="59" t="s">
         <v>303</v>
       </c>
       <c r="B1" s="60" t="s">
@@ -7877,725 +7911,725 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" s="58" customFormat="1" spans="1:11">
-      <c r="A2" s="76" t="s">
+    <row r="2" s="63" customFormat="1" spans="1:11">
+      <c r="A2" s="77" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="76"/>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="64" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="64" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="76"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="64" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" s="57" customFormat="1" spans="1:5">
-      <c r="A6" s="76"/>
-      <c r="B6" s="78" t="s">
+    <row r="6" s="58" customFormat="1" spans="1:5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="76"/>
-      <c r="B7" s="78" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="64" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="76"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="9" s="57" customFormat="1" spans="1:5">
-      <c r="A9" s="76"/>
-      <c r="B9" s="78" t="s">
+    <row r="9" s="58" customFormat="1" spans="1:5">
+      <c r="A9" s="77"/>
+      <c r="B9" s="79" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="76"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="76"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="12" s="57" customFormat="1" spans="1:5">
-      <c r="A12" s="76"/>
-      <c r="B12" s="78" t="s">
+    <row r="12" s="58" customFormat="1" spans="1:5">
+      <c r="A12" s="77"/>
+      <c r="B12" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="13" s="57" customFormat="1" spans="1:5">
-      <c r="A13" s="76"/>
-      <c r="B13" s="78" t="s">
+    <row r="13" s="58" customFormat="1" spans="1:5">
+      <c r="A13" s="77"/>
+      <c r="B13" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="76"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="79" t="s">
         <v>453</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="15" s="57" customFormat="1" spans="1:5">
-      <c r="A15" s="76"/>
-      <c r="B15" s="78" t="s">
+    <row r="15" s="58" customFormat="1" spans="1:5">
+      <c r="A15" s="77"/>
+      <c r="B15" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="16" s="57" customFormat="1" spans="1:5">
-      <c r="A16" s="76"/>
-      <c r="B16" s="78" t="s">
+    <row r="16" s="58" customFormat="1" spans="1:5">
+      <c r="A16" s="77"/>
+      <c r="B16" s="79" t="s">
         <v>457</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="17" s="57" customFormat="1" spans="1:5">
-      <c r="A17" s="76"/>
-      <c r="B17" s="78" t="s">
+    <row r="17" s="58" customFormat="1" spans="1:5">
+      <c r="A17" s="77"/>
+      <c r="B17" s="79" t="s">
         <v>459</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="18" s="57" customFormat="1" spans="1:5">
-      <c r="A18" s="76"/>
-      <c r="B18" s="78" t="s">
+    <row r="18" s="58" customFormat="1" spans="1:5">
+      <c r="A18" s="77"/>
+      <c r="B18" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="19" s="57" customFormat="1" spans="1:5">
-      <c r="A19" s="76"/>
-      <c r="B19" s="78" t="s">
+    <row r="19" s="58" customFormat="1" spans="1:5">
+      <c r="A19" s="77"/>
+      <c r="B19" s="79" t="s">
         <v>463</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="20" s="57" customFormat="1" spans="1:5">
-      <c r="A20" s="76"/>
-      <c r="B20" s="78" t="s">
+    <row r="20" s="58" customFormat="1" spans="1:5">
+      <c r="A20" s="77"/>
+      <c r="B20" s="79" t="s">
         <v>465</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="21" s="58" customFormat="1" spans="1:5">
-      <c r="A21" s="76"/>
-      <c r="B21" s="71" t="s">
+    <row r="21" s="63" customFormat="1" spans="1:5">
+      <c r="A21" s="77"/>
+      <c r="B21" s="75" t="s">
         <v>467</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="22" s="58" customFormat="1" spans="1:5">
-      <c r="A22" s="76"/>
-      <c r="B22" s="71" t="s">
+    <row r="22" s="63" customFormat="1" spans="1:5">
+      <c r="A22" s="77"/>
+      <c r="B22" s="75" t="s">
         <v>469</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="64" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="58" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="76"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="77"/>
+      <c r="B24" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="76"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="58" t="s">
+      <c r="G25" s="64"/>
+      <c r="H25" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="76"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="70" t="s">
         <v>436</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="76"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="70" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="76"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="76"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="77"/>
+      <c r="B29" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="58"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="76"/>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="76"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="76"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="70" t="s">
         <v>453</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="76"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="70" t="s">
         <v>457</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="58" t="s">
+      <c r="G33" s="64"/>
+      <c r="H33" s="63" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="34" s="58" customFormat="1" spans="1:6">
-      <c r="A34" s="80" t="s">
+    <row r="34" s="63" customFormat="1" spans="1:6">
+      <c r="A34" s="81" t="s">
         <v>478</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="82" t="s">
         <v>436</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="64" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="35" s="58" customFormat="1" spans="1:8">
-      <c r="A35" s="82"/>
-      <c r="B35" s="81" t="s">
+    <row r="35" s="63" customFormat="1" spans="1:8">
+      <c r="A35" s="61"/>
+      <c r="B35" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="58" t="s">
+      <c r="G35" s="64"/>
+      <c r="H35" s="63" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="36" s="58" customFormat="1" spans="1:8">
-      <c r="A36" s="82"/>
-      <c r="B36" s="81" t="s">
+    <row r="36" s="63" customFormat="1" spans="1:8">
+      <c r="A36" s="61"/>
+      <c r="B36" s="82" t="s">
         <v>480</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="58" t="s">
+      <c r="G36" s="64"/>
+      <c r="H36" s="63" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="37" s="58" customFormat="1" spans="1:7">
-      <c r="A37" s="82"/>
-      <c r="B37" s="81" t="s">
+    <row r="37" s="63" customFormat="1" spans="1:7">
+      <c r="A37" s="61"/>
+      <c r="B37" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="G37" s="59"/>
-    </row>
-    <row r="38" s="58" customFormat="1" spans="1:7">
-      <c r="A38" s="82"/>
-      <c r="B38" s="81" t="s">
+      <c r="G37" s="64"/>
+    </row>
+    <row r="38" s="63" customFormat="1" spans="1:7">
+      <c r="A38" s="61"/>
+      <c r="B38" s="82" t="s">
         <v>482</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="G38" s="59"/>
-    </row>
-    <row r="39" s="58" customFormat="1" spans="1:7">
-      <c r="A39" s="82"/>
-      <c r="B39" s="81" t="s">
+      <c r="G38" s="64"/>
+    </row>
+    <row r="39" s="63" customFormat="1" spans="1:7">
+      <c r="A39" s="61"/>
+      <c r="B39" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="G39" s="59"/>
-    </row>
-    <row r="40" s="58" customFormat="1" spans="1:8">
-      <c r="A40" s="82"/>
-      <c r="B40" s="81" t="s">
+      <c r="G39" s="64"/>
+    </row>
+    <row r="40" s="63" customFormat="1" spans="1:8">
+      <c r="A40" s="61"/>
+      <c r="B40" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="63" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="41" s="58" customFormat="1" spans="1:8">
+    <row r="41" s="63" customFormat="1" spans="1:8">
       <c r="A41" s="83"/>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="82" t="s">
         <v>486</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="63" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="61" t="s">
         <v>489</v>
       </c>
       <c r="B43" s="84" t="s">
@@ -8610,459 +8644,459 @@
       <c r="E43" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="F43" s="71" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="82"/>
-      <c r="B44" s="71" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F44" s="67"/>
+      <c r="F44" s="71"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="82"/>
-      <c r="B45" s="78" t="s">
+      <c r="A45" s="61"/>
+      <c r="B45" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F45" s="67"/>
-    </row>
-    <row r="46" s="72" customFormat="1" spans="1:6">
+      <c r="F45" s="71"/>
+    </row>
+    <row r="46" s="76" customFormat="1" spans="1:6">
       <c r="A46" s="86"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F46" s="67"/>
+      <c r="F46" s="71"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="82"/>
-      <c r="B47" s="78" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F47" s="67"/>
+      <c r="F47" s="71"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="82"/>
-      <c r="B48" s="78" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F48" s="67"/>
+      <c r="F48" s="71"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="82"/>
-      <c r="B49" s="78" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="79" t="s">
+      <c r="D49" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F49" s="67"/>
+      <c r="F49" s="71"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="82"/>
-      <c r="B50" s="78" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F50" s="67"/>
+      <c r="F50" s="71"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="82"/>
-      <c r="B51" s="78" t="s">
+      <c r="A51" s="61"/>
+      <c r="B51" s="79" t="s">
         <v>444</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="E51" s="59" t="s">
+      <c r="E51" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F51" s="67"/>
+      <c r="F51" s="71"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="82"/>
-      <c r="B52" s="78" t="s">
+      <c r="A52" s="61"/>
+      <c r="B52" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F52" s="67"/>
+      <c r="F52" s="71"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="82"/>
-      <c r="B53" s="78" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F53" s="67"/>
+      <c r="F53" s="71"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="82"/>
-      <c r="B54" s="78" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="E54" s="59" t="s">
+      <c r="E54" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F54" s="67"/>
+      <c r="F54" s="71"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="82"/>
-      <c r="B55" s="78" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F55" s="67"/>
+      <c r="F55" s="71"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="82"/>
-      <c r="B56" s="78" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="79" t="s">
         <v>453</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="E56" s="59" t="s">
+      <c r="E56" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F56" s="67"/>
+      <c r="F56" s="71"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="82"/>
-      <c r="B57" s="78" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F57" s="67"/>
+      <c r="F57" s="71"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="82"/>
-      <c r="B58" s="78" t="s">
+      <c r="A58" s="61"/>
+      <c r="B58" s="79" t="s">
         <v>457</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="E58" s="59" t="s">
+      <c r="E58" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F58" s="67"/>
+      <c r="F58" s="71"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="82"/>
-      <c r="B59" s="78" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="79" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="E59" s="59" t="s">
+      <c r="E59" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F59" s="67"/>
+      <c r="F59" s="71"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="82"/>
-      <c r="B60" s="78" t="s">
+      <c r="A60" s="61"/>
+      <c r="B60" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="E60" s="59" t="s">
+      <c r="E60" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F60" s="67"/>
+      <c r="F60" s="71"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="82"/>
-      <c r="B61" s="78" t="s">
+      <c r="A61" s="61"/>
+      <c r="B61" s="79" t="s">
         <v>463</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="E61" s="59" t="s">
+      <c r="E61" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F61" s="67"/>
+      <c r="F61" s="71"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="82"/>
-      <c r="B62" s="78" t="s">
+      <c r="A62" s="61"/>
+      <c r="B62" s="79" t="s">
         <v>465</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="E62" s="59" t="s">
+      <c r="E62" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F62" s="67"/>
+      <c r="F62" s="71"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="82"/>
-      <c r="B63" s="71" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="75" t="s">
         <v>467</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="E63" s="59" t="s">
+      <c r="E63" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F63" s="67"/>
+      <c r="F63" s="71"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="82"/>
-      <c r="B64" s="71" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="75" t="s">
         <v>469</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="D64" s="79" t="s">
+      <c r="D64" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="E64" s="59" t="s">
+      <c r="E64" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F64" s="67"/>
-    </row>
-    <row r="66" s="57" customFormat="1" spans="1:5">
-      <c r="A66" s="67" t="s">
+      <c r="F64" s="71"/>
+    </row>
+    <row r="66" s="58" customFormat="1" spans="1:5">
+      <c r="A66" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="67" s="57" customFormat="1" spans="1:5">
-      <c r="A67" s="67"/>
-      <c r="B67" s="57" t="s">
+    <row r="67" s="58" customFormat="1" spans="1:5">
+      <c r="A67" s="71"/>
+      <c r="B67" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="68" s="57" customFormat="1" spans="1:5">
-      <c r="A68" s="67"/>
-      <c r="B68" s="57" t="s">
+    <row r="68" s="58" customFormat="1" spans="1:5">
+      <c r="A68" s="71"/>
+      <c r="B68" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="69" s="57" customFormat="1" spans="1:5">
-      <c r="A69" s="67"/>
-      <c r="B69" s="57" t="s">
+    <row r="69" s="58" customFormat="1" spans="1:5">
+      <c r="A69" s="71"/>
+      <c r="B69" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="E69" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="70" s="57" customFormat="1" spans="1:5">
-      <c r="A70" s="67"/>
-      <c r="B70" s="57" t="s">
+    <row r="70" s="58" customFormat="1" spans="1:5">
+      <c r="A70" s="71"/>
+      <c r="B70" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="E70" s="57" t="s">
+      <c r="E70" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="71" s="57" customFormat="1" spans="1:5">
-      <c r="A71" s="67"/>
-      <c r="B71" s="57" t="s">
+    <row r="71" s="58" customFormat="1" spans="1:5">
+      <c r="A71" s="71"/>
+      <c r="B71" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="E71" s="57" t="s">
+      <c r="E71" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="72" s="57" customFormat="1" spans="1:5">
-      <c r="A72" s="67"/>
-      <c r="B72" s="57" t="s">
+    <row r="72" s="58" customFormat="1" spans="1:5">
+      <c r="A72" s="71"/>
+      <c r="B72" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="E72" s="57" t="s">
+      <c r="E72" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="73" s="57" customFormat="1" spans="1:5">
-      <c r="A73" s="67"/>
-      <c r="B73" s="57" t="s">
+    <row r="73" s="58" customFormat="1" spans="1:5">
+      <c r="A73" s="71"/>
+      <c r="B73" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="E73" s="57" t="s">
+      <c r="E73" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="74" s="57" customFormat="1" spans="1:5">
-      <c r="A74" s="67"/>
-      <c r="E74" s="57" t="s">
+    <row r="74" s="58" customFormat="1" spans="1:5">
+      <c r="A74" s="71"/>
+      <c r="E74" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="75" s="57" customFormat="1" spans="1:5">
-      <c r="A75" s="67"/>
-      <c r="B75" s="57" t="s">
+    <row r="75" s="58" customFormat="1" spans="1:5">
+      <c r="A75" s="71"/>
+      <c r="B75" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="E75" s="57" t="s">
+      <c r="E75" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="76" s="57" customFormat="1" spans="1:5">
-      <c r="A76" s="67"/>
-      <c r="B76" s="57" t="s">
+    <row r="76" s="58" customFormat="1" spans="1:5">
+      <c r="A76" s="71"/>
+      <c r="B76" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="E76" s="57" t="s">
+      <c r="E76" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="77" s="57" customFormat="1" spans="1:5">
-      <c r="A77" s="67"/>
-      <c r="B77" s="57" t="s">
+    <row r="77" s="58" customFormat="1" spans="1:5">
+      <c r="A77" s="71"/>
+      <c r="B77" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="E77" s="57" t="s">
+      <c r="E77" s="58" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="78" s="57" customFormat="1" spans="1:5">
-      <c r="A78" s="67"/>
-      <c r="B78" s="57" t="s">
+    <row r="78" s="58" customFormat="1" spans="1:5">
+      <c r="A78" s="71"/>
+      <c r="B78" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="58" t="s">
         <v>425</v>
       </c>
     </row>
@@ -9098,21 +9132,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.81666666666667" style="59"/>
-    <col min="2" max="2" width="26.8166666666667" style="59" customWidth="1"/>
-    <col min="3" max="4" width="25.8166666666667" style="59" customWidth="1"/>
-    <col min="5" max="7" width="14.1833333333333" style="59" customWidth="1"/>
-    <col min="8" max="8" width="14.3666666666667" style="59" customWidth="1"/>
-    <col min="9" max="9" width="17.0916666666667" style="58" customWidth="1"/>
-    <col min="10" max="12" width="8.81666666666667" style="58"/>
-    <col min="13" max="13" width="20.8166666666667" style="58" customWidth="1"/>
-    <col min="14" max="19" width="8.81666666666667" style="58"/>
-    <col min="20" max="20" width="23.0916666666667" style="58" customWidth="1"/>
-    <col min="21" max="21" width="22.9083333333333" style="58" customWidth="1"/>
-    <col min="22" max="16383" width="8.81666666666667" style="58"/>
+    <col min="1" max="1" width="8.81666666666667" style="64"/>
+    <col min="2" max="2" width="26.8166666666667" style="64" customWidth="1"/>
+    <col min="3" max="4" width="25.8166666666667" style="64" customWidth="1"/>
+    <col min="5" max="7" width="14.1833333333333" style="64" customWidth="1"/>
+    <col min="8" max="8" width="14.3666666666667" style="64" customWidth="1"/>
+    <col min="9" max="9" width="17.0916666666667" style="63" customWidth="1"/>
+    <col min="10" max="12" width="8.81666666666667" style="63"/>
+    <col min="13" max="13" width="20.8166666666667" style="63" customWidth="1"/>
+    <col min="14" max="19" width="8.81666666666667" style="63"/>
+    <col min="20" max="20" width="23.0916666666667" style="63" customWidth="1"/>
+    <col min="21" max="21" width="22.9083333333333" style="63" customWidth="1"/>
+    <col min="22" max="16383" width="8.81666666666667" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" s="56" customFormat="1" spans="1:9">
+    <row r="1" s="55" customFormat="1" spans="1:9">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -9137,2063 +9171,2063 @@
       <c r="H1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="64" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="63" t="s">
         <v>477</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="62"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="64" t="s">
         <v>437</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="62"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="62"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="64"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="64" t="s">
         <v>434</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="64" t="s">
         <v>509</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="68" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="64" t="s">
         <v>517</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="65" t="s">
         <v>532</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="62"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="62"/>
-      <c r="B22" s="59" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="67" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="62"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="62"/>
-      <c r="B24" s="59" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="62"/>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="62"/>
-      <c r="B26" s="59" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="62"/>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I28" s="58" t="s">
+      <c r="I28" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="62"/>
-      <c r="B29" s="59" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="62"/>
-      <c r="B30" s="59" t="s">
+      <c r="A30" s="66"/>
+      <c r="B30" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="62"/>
-      <c r="B31" s="59" t="s">
+      <c r="A31" s="66"/>
+      <c r="B31" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="59" t="s">
+      <c r="F31" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="64"/>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="65" t="s">
         <v>553</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="62"/>
-      <c r="B34" s="59" t="s">
+      <c r="A34" s="66"/>
+      <c r="B34" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G34" s="59" t="s">
+      <c r="G34" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="62"/>
-      <c r="B35" s="59" t="s">
+      <c r="A35" s="66"/>
+      <c r="B35" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="62"/>
-      <c r="B36" s="59" t="s">
+      <c r="A36" s="66"/>
+      <c r="B36" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I36" s="58" t="s">
+      <c r="I36" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="62"/>
-      <c r="B37" s="59" t="s">
+      <c r="A37" s="66"/>
+      <c r="B37" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="G37" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="62"/>
-      <c r="B38" s="59" t="s">
+      <c r="A38" s="66"/>
+      <c r="B38" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="62"/>
-      <c r="B39" s="59" t="s">
+      <c r="A39" s="66"/>
+      <c r="B39" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="F39" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="G39" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I39" s="58" t="s">
+      <c r="I39" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="62"/>
-      <c r="B40" s="59" t="s">
+      <c r="A40" s="66"/>
+      <c r="B40" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="62"/>
-      <c r="B41" s="59" t="s">
+      <c r="A41" s="66"/>
+      <c r="B41" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="62"/>
-      <c r="B42" s="59" t="s">
+      <c r="A42" s="66"/>
+      <c r="B42" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="62"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="66"/>
+      <c r="B43" s="64" t="s">
         <v>568</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="64" t="s">
         <v>569</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="64" t="s">
         <v>569</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G43" s="59" t="s">
+      <c r="G43" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I43" s="58" t="s">
+      <c r="I43" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="64"/>
-      <c r="B44" s="59" t="s">
+      <c r="A44" s="68"/>
+      <c r="B44" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="F44" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="64" t="s">
         <v>571</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I45" s="58" t="s">
+      <c r="I45" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="64" t="s">
         <v>575</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="64" t="s">
         <v>575</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I46" s="58" t="s">
+      <c r="I46" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F47" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I47" s="58" t="s">
+      <c r="I47" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="64" t="s">
         <v>578</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F48" s="59" t="s">
+      <c r="F48" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I48" s="58" t="s">
+      <c r="I48" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I49" s="58" t="s">
+      <c r="I49" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="64" t="s">
         <v>580</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="64" t="s">
         <v>580</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F50" s="59" t="s">
+      <c r="F50" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I50" s="58" t="s">
+      <c r="I50" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="E51" s="59" t="s">
+      <c r="E51" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F51" s="59" t="s">
+      <c r="F51" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G51" s="59" t="s">
+      <c r="G51" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I51" s="58" t="s">
+      <c r="I51" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="64" t="s">
         <v>583</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G52" s="59" t="s">
+      <c r="G52" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="64" t="s">
         <v>446</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E53" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F53" s="59" t="s">
+      <c r="F53" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G53" s="59" t="s">
+      <c r="G53" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="64" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="E54" s="59" t="s">
+      <c r="E54" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F54" s="59" t="s">
+      <c r="F54" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G54" s="59" t="s">
+      <c r="G54" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="64" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G55" s="59" t="s">
+      <c r="G55" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="64" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="E56" s="59" t="s">
+      <c r="E56" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F56" s="59" t="s">
+      <c r="F56" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G56" s="59" t="s">
+      <c r="G56" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I56" s="58" t="s">
+      <c r="I56" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="64" t="s">
         <v>590</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="64" t="s">
         <v>591</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="64" t="s">
         <v>591</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G57" s="59" t="s">
+      <c r="G57" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I57" s="58" t="s">
+      <c r="I57" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="64" t="s">
         <v>593</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="64" t="s">
         <v>593</v>
       </c>
-      <c r="E58" s="59" t="s">
+      <c r="E58" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G58" s="59" t="s">
+      <c r="G58" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I58" s="58" t="s">
+      <c r="I58" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E59" s="59" t="s">
+      <c r="E59" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G59" s="59" t="s">
+      <c r="G59" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I59" s="58" t="s">
+      <c r="I59" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="E60" s="59" t="s">
+      <c r="E60" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G60" s="59" t="s">
+      <c r="G60" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I60" s="58" t="s">
+      <c r="I60" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="64" t="s">
         <v>595</v>
       </c>
-      <c r="E61" s="59" t="s">
+      <c r="E61" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G61" s="59" t="s">
+      <c r="G61" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I61" s="58" t="s">
+      <c r="I61" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="E62" s="59" t="s">
+      <c r="E62" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G62" s="59" t="s">
+      <c r="G62" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="E63" s="59" t="s">
+      <c r="E63" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="G63" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I63" s="58" t="s">
+      <c r="I63" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="E64" s="59" t="s">
+      <c r="E64" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G64" s="59" t="s">
+      <c r="G64" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="H64" s="59" t="s">
+      <c r="H64" s="64" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="64" t="s">
         <v>599</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="64" t="s">
         <v>600</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="64" t="s">
         <v>600</v>
       </c>
-      <c r="E65" s="59" t="s">
+      <c r="E65" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G65" s="59" t="s">
+      <c r="G65" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="64" t="s">
         <v>601</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="64" t="s">
         <v>602</v>
       </c>
-      <c r="E66" s="59" t="s">
+      <c r="E66" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G66" s="59" t="s">
+      <c r="G66" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I66" s="58" t="s">
+      <c r="I66" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="64" t="s">
         <v>590</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="64" t="s">
         <v>603</v>
       </c>
-      <c r="E67" s="59" t="s">
+      <c r="E67" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G67" s="59" t="s">
+      <c r="G67" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I67" s="58" t="s">
+      <c r="I67" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E68" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F68" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G68" s="59" t="s">
+      <c r="G68" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I68" s="58" t="s">
+      <c r="I68" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E69" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F69" s="59" t="s">
+      <c r="F69" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G69" s="59" t="s">
+      <c r="G69" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I69" s="58" t="s">
+      <c r="I69" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="E70" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F70" s="59" t="s">
+      <c r="F70" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G70" s="59" t="s">
+      <c r="G70" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I70" s="58" t="s">
+      <c r="I70" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="64" t="s">
         <v>606</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="64" t="s">
         <v>606</v>
       </c>
-      <c r="E71" s="59" t="s">
+      <c r="E71" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="F71" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G71" s="59" t="s">
+      <c r="G71" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I71" s="58" t="s">
+      <c r="I71" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C72" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E72" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F72" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G72" s="59" t="s">
+      <c r="G72" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="64" t="s">
         <v>608</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="64" t="s">
         <v>608</v>
       </c>
-      <c r="E73" s="59" t="s">
+      <c r="E73" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G73" s="59" t="s">
+      <c r="G73" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I73" s="58" t="s">
+      <c r="I73" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="E74" s="59" t="s">
+      <c r="E74" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F74" s="59" t="s">
+      <c r="F74" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G74" s="59" t="s">
+      <c r="G74" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="64" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="E75" s="59" t="s">
+      <c r="E75" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F75" s="59" t="s">
+      <c r="F75" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G75" s="59" t="s">
+      <c r="G75" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="64" t="s">
         <v>612</v>
       </c>
-      <c r="B76" s="59" t="s">
+      <c r="B76" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="64" t="s">
         <v>613</v>
       </c>
-      <c r="E76" s="59" t="s">
+      <c r="E76" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F76" s="59" t="s">
+      <c r="F76" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G76" s="59" t="s">
+      <c r="G76" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I76" s="58" t="s">
+      <c r="I76" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="64" t="s">
         <v>590</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C77" s="64" t="s">
         <v>614</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="64" t="s">
         <v>614</v>
       </c>
-      <c r="E77" s="59" t="s">
+      <c r="E77" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F77" s="59" t="s">
+      <c r="F77" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G77" s="59" t="s">
+      <c r="G77" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I77" s="58" t="s">
+      <c r="I77" s="63" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="64" t="s">
         <v>615</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="64" t="s">
         <v>615</v>
       </c>
-      <c r="E78" s="59" t="s">
+      <c r="E78" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F78" s="59" t="s">
+      <c r="F78" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G78" s="59" t="s">
+      <c r="G78" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I78" s="58" t="s">
+      <c r="I78" s="63" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="E79" s="59" t="s">
+      <c r="E79" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F79" s="59" t="s">
+      <c r="F79" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G79" s="59" t="s">
+      <c r="G79" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I79" s="58" t="s">
+      <c r="I79" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F80" s="59" t="s">
+      <c r="F80" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G80" s="59" t="s">
+      <c r="G80" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I80" s="58" t="s">
+      <c r="I80" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="64" t="s">
         <v>581</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F81" s="59" t="s">
+      <c r="F81" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G81" s="59" t="s">
+      <c r="G81" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I81" s="58" t="s">
+      <c r="I81" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="C82" s="59" t="s">
+      <c r="C82" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="64" t="s">
         <v>618</v>
       </c>
-      <c r="E82" s="59" t="s">
+      <c r="E82" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F82" s="59" t="s">
+      <c r="F82" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G82" s="59" t="s">
+      <c r="G82" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="59" t="s">
+      <c r="B83" s="64" t="s">
         <v>597</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="64" t="s">
         <v>619</v>
       </c>
-      <c r="D83" s="59" t="s">
+      <c r="D83" s="64" t="s">
         <v>619</v>
       </c>
-      <c r="E83" s="59" t="s">
+      <c r="E83" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F83" s="59" t="s">
+      <c r="F83" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G83" s="59" t="s">
+      <c r="G83" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="I83" s="58" t="s">
+      <c r="I83" s="63" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="C84" s="59" t="s">
+      <c r="C84" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="D84" s="59" t="s">
+      <c r="D84" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="E84" s="59" t="s">
+      <c r="E84" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F84" s="59" t="s">
+      <c r="F84" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G84" s="59" t="s">
+      <c r="G84" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="H84" s="59" t="s">
+      <c r="H84" s="64" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="64" t="s">
         <v>621</v>
       </c>
-      <c r="C85" s="59" t="s">
+      <c r="C85" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="64" t="s">
         <v>622</v>
       </c>
-      <c r="E85" s="59" t="s">
+      <c r="E85" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="F85" s="59" t="s">
+      <c r="F85" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="G85" s="59" t="s">
+      <c r="G85" s="64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="C86" s="59" t="s">
+      <c r="C86" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="E86" s="59" t="s">
+      <c r="E86" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G86" s="59" t="s">
+      <c r="G86" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="D87" s="63" t="s">
+      <c r="D87" s="67" t="s">
         <v>471</v>
       </c>
-      <c r="E87" s="59" t="s">
+      <c r="E87" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F87" s="59" t="s">
+      <c r="F87" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G87" s="59" t="s">
+      <c r="G87" s="64" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="64" t="s">
         <v>623</v>
       </c>
-      <c r="C88" s="59" t="s">
+      <c r="C88" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="E88" s="59" t="s">
+      <c r="E88" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F88" s="59" t="s">
+      <c r="F88" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="H88" s="59" t="s">
+      <c r="H88" s="64" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="89" s="57" customFormat="1" spans="1:9">
-      <c r="A89" s="66" t="s">
+    <row r="89" s="58" customFormat="1" spans="1:9">
+      <c r="A89" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="E89" s="59" t="s">
+      <c r="E89" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="F89" s="59" t="s">
+      <c r="F89" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="G89" s="58"/>
-      <c r="I89" s="57" t="s">
+      <c r="G89" s="63"/>
+      <c r="I89" s="58" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="90" s="58" customFormat="1" spans="1:8">
-      <c r="A90" s="68" t="s">
+    <row r="90" s="63" customFormat="1" spans="1:8">
+      <c r="A90" s="72" t="s">
         <v>486</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="C90" s="59" t="s">
+      <c r="C90" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="E90" s="69" t="s">
+      <c r="E90" s="73" t="s">
         <v>627</v>
       </c>
-      <c r="F90" s="70"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="71"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11237,20 +11271,20 @@
     <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="55" customFormat="1" spans="1:5">
-      <c r="A1" s="55" t="s">
+    <row r="1" s="62" customFormat="1" spans="1:5">
+      <c r="A1" s="62" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="62" t="s">
         <v>630</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="62" t="s">
         <v>631</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="62" t="s">
         <v>632</v>
       </c>
     </row>
@@ -11407,6 +11441,137 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="45.625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="15.5416666666667" style="57" customWidth="1"/>
+    <col min="3" max="3" width="23.4583333333333" style="58" customWidth="1"/>
+    <col min="4" max="4" width="22.4583333333333" style="58" customWidth="1"/>
+    <col min="5" max="5" width="8.81666666666667" style="58"/>
+    <col min="6" max="6" width="58.75" style="58" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="58" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="58" customWidth="1"/>
+    <col min="9" max="16384" width="8.81666666666667" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="55" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="61" t="s">
+        <v>663</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>665</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="61"/>
+      <c r="B3" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>667</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>670</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>670</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="61"/>
+      <c r="B5" s="57" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>672</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="61"/>
+      <c r="B6" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:AF14"/>
@@ -11451,99 +11616,99 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" ht="76.5" customHeight="1" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="42.75" spans="1:32">
       <c r="A3" s="11" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>253</v>
@@ -11558,7 +11723,7 @@
         <v>480</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>254</v>
@@ -11573,7 +11738,7 @@
         <v>553</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="N3" s="29" t="s">
         <v>444</v>
@@ -11585,16 +11750,16 @@
         <v>585</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="R3" s="30" t="s">
         <v>446</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="U3" s="29" t="s">
         <v>598</v>
@@ -11603,55 +11768,55 @@
         <v>599</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="X3" s="29" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="Y3" s="29" t="s">
         <v>610</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="AB3" s="29" t="s">
         <v>621</v>
       </c>
       <c r="AC3" s="29" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="AD3" s="50" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="AE3" s="50" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AF3" s="51"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="56" customHeight="1" spans="3:31">
       <c r="C4" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D4" s="15">
         <v>43875</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="J4" s="16">
         <v>2</v>
@@ -11691,7 +11856,7 @@
         <v>0.75</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="W4" s="37">
         <v>-999</v>
@@ -11700,7 +11865,7 @@
         <v>-999</v>
       </c>
       <c r="Y4" s="36" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="Z4" s="37">
         <v>-999</v>
@@ -11709,7 +11874,7 @@
         <v>-999</v>
       </c>
       <c r="AB4" s="36" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="AC4" s="16">
         <v>30</v>
@@ -11719,30 +11884,30 @@
         <v>97</v>
       </c>
       <c r="AE4" s="52" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" ht="48" spans="3:31">
       <c r="C5" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D5" s="8">
         <v>43871</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="J5" s="16">
         <v>2</v>
@@ -11781,25 +11946,25 @@
         <v>0.58</v>
       </c>
       <c r="V5" s="36" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="W5" s="38" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="X5" s="31" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="Y5" s="36" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="Z5" s="53" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="AA5" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="AB5" s="36" t="s">
         <v>723</v>
-      </c>
-      <c r="AB5" s="36" t="s">
-        <v>712</v>
       </c>
       <c r="AC5" s="16">
         <v>0</v>
@@ -11808,30 +11973,30 @@
         <v>62</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" ht="106" customHeight="1" spans="3:31">
       <c r="C6" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D6" s="8">
         <v>43866</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="J6" s="4">
         <v>5</v>
@@ -11870,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="W6" s="37">
         <v>-999</v>
@@ -11879,7 +12044,7 @@
         <v>-999</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="Z6" s="37">
         <v>-999</v>
@@ -11888,7 +12053,7 @@
         <v>-999</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="AC6" s="4">
         <v>30</v>
@@ -11897,30 +12062,30 @@
         <v>81</v>
       </c>
       <c r="AE6" s="52" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="63.65" customHeight="1" spans="3:31">
       <c r="C7" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D7" s="19">
         <v>43873</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="J7" s="16">
         <v>2</v>
@@ -11959,7 +12124,7 @@
         <v>0.89</v>
       </c>
       <c r="V7" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="W7" s="37">
         <v>-999</v>
@@ -11968,7 +12133,7 @@
         <v>-999</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="Z7" s="37">
         <v>-999</v>
@@ -11977,7 +12142,7 @@
         <v>-999</v>
       </c>
       <c r="AB7" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="AC7" s="16">
         <v>30</v>
@@ -11986,30 +12151,30 @@
         <v>89.5</v>
       </c>
       <c r="AE7" s="52" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" ht="143.25" customHeight="1" spans="3:31">
       <c r="C8" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D8" s="8">
         <v>43885</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="J8" s="16">
         <v>2</v>
@@ -12048,7 +12213,7 @@
         <v>0.93</v>
       </c>
       <c r="V8" s="36" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="W8" s="16">
         <v>0</v>
@@ -12057,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="Z8" s="37">
         <v>-999</v>
@@ -12066,7 +12231,7 @@
         <v>-999</v>
       </c>
       <c r="AB8" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="AC8" s="16">
         <v>30</v>
@@ -12075,30 +12240,30 @@
         <v>90</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="73" customHeight="1" spans="3:31">
       <c r="C9" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D9" s="21">
         <v>43892</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="J9" s="22">
         <v>5</v>
@@ -12137,7 +12302,7 @@
         <v>0.96</v>
       </c>
       <c r="V9" s="36" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
@@ -12146,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="Y9" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="Z9" s="37">
         <v>-999</v>
@@ -12155,7 +12320,7 @@
         <v>-999</v>
       </c>
       <c r="AB9" s="40" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="AC9" s="22">
         <v>30</v>
@@ -12164,30 +12329,30 @@
         <v>100</v>
       </c>
       <c r="AE9" s="54" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="60" customHeight="1" spans="3:31">
       <c r="C10" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D10" s="21">
         <v>43899</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="J10" s="22">
         <v>5</v>
@@ -12226,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="45" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="W10" s="37">
         <v>-999</v>
@@ -12235,7 +12400,7 @@
         <v>-999</v>
       </c>
       <c r="Y10" s="45" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="Z10" s="37">
         <v>-999</v>
@@ -12244,7 +12409,7 @@
         <v>-999</v>
       </c>
       <c r="AB10" s="45" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="AC10" s="22">
         <v>30</v>
@@ -12256,25 +12421,25 @@
     </row>
     <row r="11" s="5" customFormat="1" ht="39" customHeight="1" spans="3:31">
       <c r="C11" s="3" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="D11" s="21">
         <v>43902</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="J11" s="22">
         <v>5</v>
@@ -12313,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="45" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="W11" s="37">
         <v>-999</v>
@@ -12322,7 +12487,7 @@
         <v>-999</v>
       </c>
       <c r="Y11" s="45" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="Z11" s="37">
         <v>-999</v>
@@ -12331,7 +12496,7 @@
         <v>-999</v>
       </c>
       <c r="AB11" s="45" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="AC11" s="22">
         <v>30</v>
@@ -12340,30 +12505,30 @@
         <v>99</v>
       </c>
       <c r="AE11" s="54" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="58.5" customHeight="1" spans="3:30">
       <c r="C12" s="6" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="D12" s="25">
         <v>43832</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="J12" s="26">
         <v>2</v>
@@ -12406,25 +12571,25 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="39" customHeight="1" spans="3:30">
       <c r="C13" s="6" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="D13" s="25">
         <v>43845</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="J13" s="27">
         <v>5</v>
@@ -12468,25 +12633,25 @@
     </row>
     <row r="14" s="6" customFormat="1" ht="58.5" customHeight="1" spans="3:30">
       <c r="C14" s="6" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="D14" s="25">
         <v>43850</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="J14" s="26">
         <v>2</v>
